--- a/20-excel-based/210-models/020-base-model-digital-asset.xlsx
+++ b/20-excel-based/210-models/020-base-model-digital-asset.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Tools\Automation\latest_code_base\berika3.0_final_branch\rs-pim-mdm\src\20-excel-based\210-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddh\Downloads\PMIeTron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E01EEC-54A2-4FC5-999F-583662E5EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A06BC11-B97D-4CED-A8C2-0C05F8413482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="929" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="929" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dropdownlist" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,36 +28,36 @@
     <sheet name="VARIANT MODEL" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_F2" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
-    <definedName name="_FILET" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
-    <definedName name="_FILT1" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ATTRIBUTES!$A$1:$AX$27</definedName>
+    <definedName name="_F2" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FILET" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FILT1" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ATTRIBUTES!$A$1:$BC$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ATTRIBUTES LOCALE'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'E-A-R MODEL'!$A$1:$AS$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'E-A-R MODEL'!$A$1:$AU$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'E-C MODEL'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ENTITIES!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ENTITIES LOCALE'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">RELATIONSHIPS!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'RELATIONSHIPS LOCALE'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'VARIANT MODEL'!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">ATTRIBUTES!$A$1:$AT$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AM$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">ATTRIBUTES!$A$1:$AX$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AN$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">ENTITIES!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'ENTITIES LOCALE'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
     <definedName name="_RefDataAttribute" localSheetId="4">ATTRIBUTES!#REF!</definedName>
     <definedName name="_RefDataAttribute">ATTRIBUTES!#REF!</definedName>
-    <definedName name="aaaa" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
+    <definedName name="aaaa" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
     <definedName name="RefDataAttribute" localSheetId="4">ATTRIBUTES!#REF!</definedName>
     <definedName name="RefDataAttribute">ATTRIBUTES!#REF!</definedName>
-    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="5">ATTRIBUTES!$A$1:$AT$197</definedName>
-    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="9">'E-A-R MODEL'!$A$1:$AG$80</definedName>
+    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="5">ATTRIBUTES!$A$1:$AX$1</definedName>
+    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="9">'E-A-R MODEL'!$A$1:$AH$1</definedName>
     <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="3">ENTITIES!$A$1:$F$1</definedName>
     <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="4">'ENTITIES LOCALE'!$A$1:$D$1</definedName>
     <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.Rows" localSheetId="9">'E-A-R MODEL'!#REF!,'E-A-R MODEL'!#REF!</definedName>
-    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="5">ATTRIBUTES!$A$1:$AT$197</definedName>
-    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="9">'E-A-R MODEL'!$A$1:$AG$80</definedName>
+    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="5">ATTRIBUTES!$A$1:$AX$1</definedName>
+    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="9">'E-A-R MODEL'!$A$1:$AH$1</definedName>
     <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="3">ENTITIES!$A$1:$F$1</definedName>
     <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="4">'ENTITIES LOCALE'!$A$1:$D$1</definedName>
   </definedNames>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="246">
   <si>
     <t>Action</t>
   </si>
@@ -629,12 +629,54 @@
     <t>deeplynested</t>
   </si>
   <si>
+    <t>REFERENCE DATA SORT TYPE</t>
+  </si>
+  <si>
+    <t>REFERENCE DATA SORT FIELD</t>
+  </si>
+  <si>
+    <t>cs-CZ</t>
+  </si>
+  <si>
+    <t>en-GB</t>
+  </si>
+  <si>
+    <t>en-IE</t>
+  </si>
+  <si>
+    <t>it-IT</t>
+  </si>
+  <si>
+    <t>ja-JP</t>
+  </si>
+  <si>
+    <t>ko-KR</t>
+  </si>
+  <si>
+    <t>nb-NO</t>
+  </si>
+  <si>
+    <t>pl-PL</t>
+  </si>
+  <si>
+    <t>pt-PT</t>
+  </si>
+  <si>
+    <t>zh-TW</t>
+  </si>
+  <si>
+    <t>MERGE REPLACE</t>
+  </si>
+  <si>
+    <t>COLOR CODES</t>
+  </si>
+  <si>
+    <t>PATH SUBTITLE</t>
+  </si>
+  <si>
     <t>digitalAsset</t>
   </si>
   <si>
-    <t>isUomFormula</t>
-  </si>
-  <si>
     <t>CONTEXT TYPE 1</t>
   </si>
   <si>
@@ -674,163 +716,160 @@
     <t>pebble-icon:file-type-image</t>
   </si>
   <si>
-    <t>property_fieldofapplication</t>
-  </si>
-  <si>
-    <t>FieldOfApplication</t>
-  </si>
-  <si>
-    <t>Validoo Digital Asset</t>
-  </si>
-  <si>
-    <t>TextBox</t>
-  </si>
-  <si>
-    <t>property_state</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>property_ppi</t>
-  </si>
-  <si>
-    <t>Ppi</t>
-  </si>
-  <si>
-    <t>property_imagesize</t>
-  </si>
-  <si>
-    <t>ImageSize</t>
-  </si>
-  <si>
-    <t>property_colormode</t>
-  </si>
-  <si>
-    <t>ColorMode</t>
-  </si>
-  <si>
-    <t>property_imagetype</t>
-  </si>
-  <si>
-    <t>ImageType</t>
-  </si>
-  <si>
-    <t>property_facingindicator</t>
-  </si>
-  <si>
-    <t>FacingIndicator</t>
-  </si>
-  <si>
-    <t>property_assetcategory</t>
-  </si>
-  <si>
-    <t>AssetCategory</t>
-  </si>
-  <si>
-    <t>property_angleidentifier</t>
-  </si>
-  <si>
-    <t>AngleIdentifier</t>
-  </si>
-  <si>
-    <t>property_imageresolution</t>
-  </si>
-  <si>
-    <t>ImageResolution</t>
-  </si>
-  <si>
-    <t>property_imagesource</t>
-  </si>
-  <si>
-    <t>ImageSource</t>
-  </si>
-  <si>
-    <t>property_imageavailabilitydatebuyer</t>
-  </si>
-  <si>
-    <t>ImageAvailabilityDateBuyer</t>
-  </si>
-  <si>
-    <t>property_imagepublicaccessdate</t>
-  </si>
-  <si>
-    <t>ImagePublicAccessDate</t>
-  </si>
-  <si>
-    <t>property_fileformat</t>
-  </si>
-  <si>
-    <t>FileFormat</t>
-  </si>
-  <si>
-    <t>property_imagequalityassurancedate</t>
-  </si>
-  <si>
-    <t>ImageQualityAssuranceDate</t>
-  </si>
-  <si>
-    <t>property_digitalassetid</t>
-  </si>
-  <si>
-    <t>DigitalAssetId</t>
-  </si>
-  <si>
-    <t>property_imageapprovaldate</t>
-  </si>
-  <si>
-    <t>ImageApprovalDate</t>
-  </si>
-  <si>
-    <t>property_tags</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>imageobjectid</t>
-  </si>
-  <si>
-    <t>Object ID</t>
-  </si>
-  <si>
-    <t>Visual Objects</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Image ID from PIA</t>
-  </si>
-  <si>
-    <t>imageusedfor</t>
-  </si>
-  <si>
-    <t>List of Values</t>
-  </si>
-  <si>
-    <t>Image Used For</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>pimimagetype</t>
-  </si>
-  <si>
-    <t>Image Type</t>
-  </si>
-  <si>
-    <t>renditionobjectkey</t>
-  </si>
-  <si>
-    <t>Rendition Object Key</t>
-  </si>
-  <si>
-    <t>renditions</t>
-  </si>
-  <si>
-    <t>1020</t>
+    <t>document</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>pebble-icon:file-type-document</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>pebble-icon:file-type-video</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>pebble-icon:file-type-audio</t>
+  </si>
+  <si>
+    <t>Bilde</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>圖片</t>
+  </si>
+  <si>
+    <t>영상</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>Immagine</t>
+  </si>
+  <si>
+    <t>Obraz</t>
+  </si>
+  <si>
+    <t>Imagem</t>
+  </si>
+  <si>
+    <t>Afbeelding</t>
+  </si>
+  <si>
+    <t>Imagine</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>画像</t>
+  </si>
+  <si>
+    <t>Dokument</t>
+  </si>
+  <si>
+    <t>文檔</t>
+  </si>
+  <si>
+    <t>문서</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Dokumentera</t>
+  </si>
+  <si>
+    <t>書類</t>
+  </si>
+  <si>
+    <t>影片</t>
+  </si>
+  <si>
+    <t>비디오</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>Wideo</t>
+  </si>
+  <si>
+    <t>Vídeo</t>
+  </si>
+  <si>
+    <t>Vidéo</t>
+  </si>
+  <si>
+    <t>ビデオ</t>
+  </si>
+  <si>
+    <t>音訊</t>
+  </si>
+  <si>
+    <t>오디오</t>
+  </si>
+  <si>
+    <t>音频</t>
+  </si>
+  <si>
+    <t>Áudio</t>
+  </si>
+  <si>
+    <t>Ljud</t>
+  </si>
+  <si>
+    <t>Zvuk</t>
+  </si>
+  <si>
+    <t>音声</t>
+  </si>
+  <si>
+    <t>hasdocuments</t>
+  </si>
+  <si>
+    <t>association</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>adhasimages</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>syhasimages</t>
+  </si>
+  <si>
+    <t>hasimages</t>
+  </si>
+  <si>
+    <t>Child Image</t>
+  </si>
+  <si>
+    <t>hasvideo</t>
+  </si>
+  <si>
+    <t>hasaudio</t>
   </si>
 </sst>
 </file>
@@ -913,16 +952,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,12 +1023,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1095,20 +1126,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1126,26 +1157,25 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1153,53 +1183,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1285,42 +1277,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1236960</xdr:colOff>
+      <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
+        <xdr:cNvPr id="3" name="Graphic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D053B8-88C8-46FF-BFD8-C4CB963C11FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="167400" y="58320"/>
-          <a:ext cx="2978280" cy="452160"/>
+          <a:off x="733425" y="171450"/>
+          <a:ext cx="2590800" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1628,7 +1630,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C11"/>
+      <selection activeCell="G2" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1639,7 +1641,7 @@
     <col min="4" max="4" width="8.8984375"/>
     <col min="5" max="5" width="22.09765625"/>
     <col min="6" max="6" width="8.8984375"/>
-    <col min="7" max="7" width="8.8984375" style="37"/>
+    <col min="7" max="7" width="8.8984375" style="36"/>
     <col min="8" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="1024" width="8.8984375"/>
   </cols>
@@ -1663,7 +1665,7 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1690,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>142</v>
@@ -1736,7 +1738,7 @@
         <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
         <v>144</v>
@@ -1750,7 +1752,7 @@
         <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
         <v>145</v>
@@ -1764,7 +1766,7 @@
         <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
         <v>146</v>
@@ -1778,7 +1780,7 @@
         <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
         <v>147</v>
@@ -1792,7 +1794,7 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
         <v>148</v>
@@ -1806,7 +1808,7 @@
         <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
         <v>149</v>
@@ -1819,7 +1821,9 @@
       <c r="C10" t="s">
         <v>102</v>
       </c>
-      <c r="G10"/>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
       <c r="H10" t="s">
         <v>150</v>
       </c>
@@ -1828,55 +1832,73 @@
       <c r="C11" t="s">
         <v>164</v>
       </c>
-      <c r="G11"/>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
       <c r="H11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="G12"/>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
       <c r="H12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13"/>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
       <c r="H13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="G14"/>
+      <c r="G14" t="s">
+        <v>174</v>
+      </c>
       <c r="H14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="G15"/>
+      <c r="G15" t="s">
+        <v>175</v>
+      </c>
       <c r="H15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="G16"/>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
       <c r="H16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="7:8">
-      <c r="G17"/>
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
       <c r="H17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="18" spans="7:8">
-      <c r="G18"/>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
       <c r="H18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="19" spans="7:8">
-      <c r="G19"/>
+      <c r="G19" t="s">
+        <v>176</v>
+      </c>
       <c r="H19" t="s">
         <v>159</v>
       </c>
@@ -1895,21 +1917,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AT23"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.8984375" customWidth="1"/>
     <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.09765625" bestFit="1" customWidth="1"/>
@@ -1923,37 +1945,39 @@
     <col min="15" max="15" width="35"/>
     <col min="16" max="16" width="29.09765625"/>
     <col min="17" max="17" width="26.59765625"/>
-    <col min="18" max="19" width="16.09765625"/>
-    <col min="20" max="20" width="23.5"/>
-    <col min="21" max="21" width="25.59765625"/>
-    <col min="22" max="22" width="39.59765625"/>
-    <col min="23" max="23" width="30.59765625"/>
-    <col min="24" max="24" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.69921875" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.19921875" customWidth="1"/>
-    <col min="40" max="40" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="46" max="1031" width="8.8984375"/>
+    <col min="18" max="18" width="17.69921875" customWidth="1"/>
+    <col min="19" max="20" width="16.09765625"/>
+    <col min="21" max="21" width="23.5"/>
+    <col min="22" max="22" width="25.59765625"/>
+    <col min="23" max="23" width="39.59765625"/>
+    <col min="24" max="24" width="30.59765625"/>
+    <col min="25" max="25" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.69921875" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" customWidth="1"/>
+    <col min="31" max="31" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.19921875" customWidth="1"/>
+    <col min="41" max="41" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="1032" width="8.8984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="22" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:47" s="22" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -2006,361 +2030,100 @@
         <v>67</v>
       </c>
       <c r="R1" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AB1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AR1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AR1" s="39" t="s">
+      <c r="AS1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="AS1" s="39" t="s">
+      <c r="AT1" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="AT1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46">
-      <c r="B2" t="s">
+      <c r="AU1" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46">
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46">
-      <c r="B9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
-      <c r="B10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46">
-      <c r="B11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
-      <c r="B12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46">
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
-      <c r="B16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS28" xr:uid="{00000000-0009-0000-0000-000009000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS28">
-      <sortCondition sortBy="cellColor" ref="D1:D28" dxfId="1"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="D23:E1048576 D20:D22 D1:E19">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <autoFilter ref="A1:AU1" xr:uid="{94CB99F9-0B1C-47B4-ADC5-EC2CABC8208E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$F$2:$F$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>AG23:AG1048576 AQ23:AR1048576 AQ2:AR19 AG2:AG19 AI2:AI19 AI23:AI1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8296BC61-006D-4D63-87D8-5B4E909DC98C}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$F$2:$F$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>AA23:AA1048576 S23:U1048576 M23:N1048576 M2:N19 S2:U19 AA2:AA19 I2:J19 I23:J1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2369,10 +2132,10 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.69921875" customWidth="1"/>
     <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
@@ -2385,7 +2148,7 @@
     <col min="9" max="9" width="39.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="21.75" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
@@ -2436,56 +2199,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="51" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>176</v>
+      <c r="C1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information" prompt="Select value from dropdown" sqref="J2:J1048576" xr:uid="{8648BC13-115E-4D65-B0A3-B6E40E7A9CAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information" prompt="Select value from dropdown" sqref="J2:J1048576" xr:uid="{F0A358BB-297A-47F5-BA24-92B01E0B3A44}">
       <formula1>"whereused,owned"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2495,7 +2259,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26417EA9-D9F5-4423-B4A0-0F883747078F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5D618C6-8694-465F-AC83-FB46E59EF95A}">
           <x14:formula1>
             <xm:f>Dropdownlist!$A$2</xm:f>
           </x14:formula1>
@@ -2581,10 +2345,10 @@
   <dimension ref="A4:F13"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="24.59765625"/>
     <col min="3" max="3" width="12.8984375"/>
@@ -2594,7 +2358,7 @@
     <col min="7" max="1025" width="8.8984375"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="21.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2611,7 +2375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="21.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2628,7 +2392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -2645,12 +2409,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="21.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -2662,7 +2426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2679,7 +2443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="21.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -2696,7 +2460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="21.75" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -2711,7 +2475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="21.75" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
         <v>31</v>
@@ -2726,7 +2490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="21.75" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="12" t="s">
         <v>32</v>
@@ -2741,7 +2505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="21.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
         <v>33</v>
@@ -2749,10 +2513,10 @@
       <c r="D13" s="4">
         <v>9</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2765,14 +2529,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.09765625"/>
     <col min="2" max="2" width="24.09765625"/>
@@ -2784,7 +2548,7 @@
     <col min="8" max="1027" width="8.8984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -2797,7 +2561,7 @@
       <c r="D1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>116</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -2807,15 +2571,48 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="B2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6">
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2839,14 +2636,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="27.3984375" customWidth="1"/>
@@ -2855,7 +2652,7 @@
     <col min="5" max="5" width="39.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -2870,6 +2667,754 @@
       </c>
       <c r="E1" s="21" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6">
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6">
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6">
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6">
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6">
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6">
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6">
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6">
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6">
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6">
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6">
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.6">
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6">
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6">
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.6">
+      <c r="B20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6">
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6">
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.6">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.6">
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.6">
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.6">
+      <c r="B26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.6">
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.6">
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.6">
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.6">
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.6">
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.6">
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.6">
+      <c r="B33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.6">
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.6">
+      <c r="B35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.6">
+      <c r="B36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.6">
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.6">
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.6">
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.6">
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15.6">
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15.6">
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15.6">
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.6">
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15.6">
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="15.6">
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15.6">
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.6">
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.6">
+      <c r="B49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.6">
+      <c r="B50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.6">
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.6">
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.6">
+      <c r="B53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.6">
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15.6">
+      <c r="B55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.6">
+      <c r="B56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15.6">
+      <c r="B57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="15.6">
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="15.6">
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="15.6">
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="15.6">
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15.6">
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="15.6">
+      <c r="B63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="15.6">
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="15.6">
+      <c r="B65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="15.6">
+      <c r="B66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="15.6">
+      <c r="B67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="15.6">
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="15.6">
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2885,9 +3430,9 @@
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DDE992E-4A1E-4E5F-9B42-C872A73FA654}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$G$2:$G$9</xm:f>
+            <xm:f>Dropdownlist!$G$2:$G$19</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -2899,16 +3444,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:BC1"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.59765625"/>
     <col min="2" max="2" width="21.8984375"/>
@@ -2928,37 +3473,41 @@
     <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.09765625"/>
     <col min="20" max="20" width="27.59765625"/>
-    <col min="21" max="21" width="23.8984375"/>
-    <col min="22" max="24" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25"/>
-    <col min="26" max="26" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="16.8984375" customWidth="1"/>
-    <col min="33" max="33" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="18.5" customWidth="1"/>
-    <col min="36" max="36" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25"/>
+    <col min="29" max="29" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="16.8984375" customWidth="1"/>
+    <col min="37" max="37" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="18.5" customWidth="1"/>
+    <col min="40" max="40" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="1034" width="9.09765625"/>
+    <col min="47" max="47" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="56" max="1039" width="9.09765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="23" customFormat="1">
+    <row r="1" spans="1:55" s="23" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -2974,10 +3523,10 @@
       <c r="E1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="21" t="s">
@@ -3023,571 +3572,115 @@
         <v>50</v>
       </c>
       <c r="V1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AH1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AI1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AV1" s="39" t="s">
+      <c r="AZ1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AW1" s="39" t="s">
+      <c r="BA1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="AX1" s="39" t="s">
+      <c r="BB1" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="AY1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51">
-      <c r="B2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51">
-      <c r="B3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51">
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51">
-      <c r="B5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51">
-      <c r="B6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51">
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51">
-      <c r="B8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51">
-      <c r="B9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51">
-      <c r="B10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51">
-      <c r="B11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51">
-      <c r="B12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51">
-      <c r="B13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51">
-      <c r="B14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51">
-      <c r="B15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51">
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="2:32">
-      <c r="B17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32">
-      <c r="B18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32">
-      <c r="B19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" t="s">
-        <v>183</v>
-      </c>
-      <c r="I19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:32">
-      <c r="B20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" t="s">
-        <v>221</v>
-      </c>
-      <c r="R20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32">
-      <c r="B21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F21" t="s">
-        <v>225</v>
-      </c>
-      <c r="G21" t="s">
-        <v>220</v>
-      </c>
-      <c r="H21" t="s">
-        <v>102</v>
-      </c>
-      <c r="S21" t="s">
-        <v>223</v>
-      </c>
-      <c r="T21" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32">
-      <c r="B22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" t="s">
-        <v>224</v>
-      </c>
-      <c r="F22" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S22" t="s">
-        <v>223</v>
-      </c>
-      <c r="T22" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32">
-      <c r="B23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" t="s">
-        <v>183</v>
-      </c>
-      <c r="O23" t="s">
-        <v>232</v>
+      <c r="BC1" s="38" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AX27" xr:uid="{00000000-0009-0000-0000-000005000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AX27">
-      <sortCondition ref="G1:G27"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
+  <autoFilter ref="A1:BC1" xr:uid="{926BB29E-8AC3-4376-A569-FDD4562EA3FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$F$2:$F$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>AV23:AW1048576 AL23:AL1048576 AN23:AN1048576 AN2:AN19 AV2:AW19 AL2:AL19</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE6D1B02-E770-43CD-99FF-8E873C7BE73E}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$F$2:$F$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>P23:P1048576 X23:X1048576 AE23:AF1048576 E23:E1048576 I23:K1048576 I2:K19 P2:P19 X2:X19 AE2:AF19 E2:E19</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1ADFCF21-3A54-48D7-AB15-098DDE055F6E}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>M23:M1048576 M2:M19</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F200390-29CE-41A9-A8CB-131588A3769A}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$B$2:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>D23:D1048576 D2:D19</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E52A251F-95ED-470B-90CC-4A765038C902}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$C$2:$C$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>H23:H1048576 H2:H19</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3596,10 +3689,10 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.3984375" customWidth="1"/>
     <col min="2" max="3" width="21.8984375" customWidth="1"/>
@@ -3608,7 +3701,7 @@
     <col min="6" max="6" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -3631,36 +3724,18 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$G$2:$G$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.19921875" customWidth="1"/>
     <col min="2" max="2" width="16.3984375" customWidth="1"/>
@@ -3676,7 +3751,7 @@
     <col min="12" max="12" width="18.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
@@ -3686,10 +3761,10 @@
       <c r="C1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="29" t="s">
@@ -3707,11 +3782,74 @@
       <c r="J1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.6">
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6">
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6">
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.6">
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.6">
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.6">
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3751,10 +3889,10 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.09765625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="7.09765625" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.3984375" customWidth="1"/>
     <col min="2" max="4" width="21.19921875" customWidth="1"/>
@@ -3762,7 +3900,7 @@
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -3785,23 +3923,5 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$G$2:$G$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>